--- a/realme/Others/Shop wise sales report till July.xlsx
+++ b/realme/Others/Shop wise sales report till July.xlsx
@@ -630,15 +630,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -946,9 +946,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M59" sqref="M59"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="AN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP56" sqref="AP56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9377,13 +9377,13 @@
       <c r="BC51" s="7"/>
     </row>
     <row r="52" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
       <c r="F52" s="19">
         <f t="shared" ref="F52:AZ52" si="0">SUM(F2:F51)</f>
         <v>603</v>
@@ -9480,31 +9480,31 @@
         <f>SUM(AC2:AC51)</f>
         <v>900</v>
       </c>
-      <c r="AD52" s="29">
+      <c r="AD52" s="28">
         <f t="shared" si="0"/>
         <v>983</v>
       </c>
-      <c r="AE52" s="29">
+      <c r="AE52" s="28">
         <f t="shared" si="0"/>
         <v>1064</v>
       </c>
-      <c r="AF52" s="29">
+      <c r="AF52" s="28">
         <f t="shared" si="0"/>
         <v>1096</v>
       </c>
-      <c r="AG52" s="29">
+      <c r="AG52" s="28">
         <f t="shared" si="0"/>
         <v>1487</v>
       </c>
-      <c r="AH52" s="29">
+      <c r="AH52" s="28">
         <f t="shared" si="0"/>
         <v>928</v>
       </c>
-      <c r="AI52" s="29">
+      <c r="AI52" s="28">
         <f>SUM(AI2:AI51)</f>
         <v>1463</v>
       </c>
-      <c r="AJ52" s="31">
+      <c r="AJ52" s="30">
         <f t="shared" si="0"/>
         <v>349</v>
       </c>
@@ -9528,27 +9528,27 @@
         <f>SUM(AO2:AO51)</f>
         <v>690</v>
       </c>
-      <c r="AP52" s="30">
+      <c r="AP52" s="29">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-      <c r="AQ52" s="30">
+      <c r="AQ52" s="29">
         <f t="shared" si="0"/>
         <v>303</v>
       </c>
-      <c r="AR52" s="30">
+      <c r="AR52" s="29">
         <f t="shared" si="0"/>
         <v>284</v>
       </c>
-      <c r="AS52" s="30">
+      <c r="AS52" s="29">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="AT52" s="30">
+      <c r="AT52" s="29">
         <f t="shared" si="0"/>
         <v>278</v>
       </c>
-      <c r="AU52" s="30">
+      <c r="AU52" s="29">
         <f>SUM(AU2:AU51)</f>
         <v>480</v>
       </c>
@@ -9580,9 +9580,9 @@
       <c r="BC52" s="16"/>
     </row>
     <row r="53" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AH53" s="32"/>
-      <c r="AI53" s="33"/>
-      <c r="AJ53" s="32"/>
+      <c r="AH53" s="31"/>
+      <c r="AI53" s="32"/>
+      <c r="AJ53" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
